--- a/StatusGizi.xlsx
+++ b/StatusGizi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BahanKuliahAI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDA7146-BEF8-4CBA-B5BF-7A373BF0AA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C95B7AD-FF3C-4077-BE5A-84CD5F5C30DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1F301377-DA13-449B-AFA2-039525D110E9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>Tinggi Badan
 (cm)</t>
@@ -81,6 +81,21 @@
   </si>
   <si>
     <t>Data Uji</t>
+  </si>
+  <si>
+    <t>Tabel Kelas</t>
+  </si>
+  <si>
+    <t>Tabel Euclidean</t>
+  </si>
+  <si>
+    <t>Jarak</t>
+  </si>
+  <si>
+    <t>Status Terdekat</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -144,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -289,11 +304,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -342,6 +407,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,15 +740,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D291D4-09C1-435F-AFB4-E5E546169E31}">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
@@ -680,7 +763,7 @@
       <c r="J1" s="12"/>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -695,8 +778,11 @@
       <c r="M2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,11 +846,20 @@
       <c r="V3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>163</v>
       </c>
@@ -828,9 +923,10 @@
       <c r="V4" s="4">
         <v>95</v>
       </c>
-      <c r="W4" s="4"/>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W4" s="20"/>
+      <c r="X4" s="22"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>170</v>
       </c>
@@ -865,7 +961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>172</v>
       </c>
@@ -900,7 +996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>166</v>
       </c>
@@ -934,8 +1030,11 @@
       <c r="K7" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>167</v>
       </c>
@@ -969,8 +1068,11 @@
       <c r="K8" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>168</v>
       </c>
@@ -1004,8 +1106,11 @@
       <c r="K9" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>173</v>
       </c>
@@ -1039,8 +1144,11 @@
       <c r="K10" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>168</v>
       </c>
@@ -1075,7 +1183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>177</v>
       </c>
@@ -1110,7 +1218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>168</v>
       </c>
@@ -1145,7 +1253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>159</v>
       </c>
@@ -1180,7 +1288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>167</v>
       </c>
@@ -1215,7 +1323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>170</v>
       </c>
